--- a/data/case1/5/Q1_3.xlsx
+++ b/data/case1/5/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.22793484341463</v>
+        <v>0.22140880831450005</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999967780667</v>
+        <v>-0.0059999999672903925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0411868556233701</v>
+        <v>-0.0039999999715742973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999490318885</v>
+        <v>-0.0079999999478523875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999732375215</v>
+        <v>-0.0029999999711796121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999757889242</v>
+        <v>-0.0019999999697866144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999351165769</v>
+        <v>-0.0099999999276403351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999331190637</v>
+        <v>-0.0099999999253683747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999729516382</v>
+        <v>-0.0019999999648301348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999717583705</v>
+        <v>-0.0019999999626456599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999664003241</v>
+        <v>-0.0029999999570522462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999634020007</v>
+        <v>-0.003499999953761268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999623339662</v>
+        <v>-0.0034999999515878955</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999392672549</v>
+        <v>-0.0079999999276134659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997550703768</v>
+        <v>-0.00099999996394561919</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999702946525</v>
+        <v>-0.0019999999583908412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999705531124</v>
+        <v>-0.0019999999580573302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999602216008</v>
+        <v>-0.0039999999474504833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999774522621</v>
+        <v>-0.0039999999772040162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999704551925</v>
+        <v>-0.0039999999705617739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.040768688357062821</v>
+        <v>-0.042889402083706507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999688218324</v>
+        <v>-0.0039999999688768995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999644914084</v>
+        <v>-0.0049999999647400983</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999883883568</v>
+        <v>-0.019999999883452801</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999882395869</v>
+        <v>-0.019999999881997965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.045778815511487991</v>
+        <v>-0.0090005019581820278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999721333488</v>
+        <v>-0.0024999999660009209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999699207294</v>
+        <v>-0.0019999999661122203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999406267222</v>
+        <v>-0.0069999999382490685</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999665674153</v>
+        <v>-0.059999999660635961</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999403353996</v>
+        <v>-0.0069999999410033098</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.025495556481180515</v>
+        <v>0.052578075282864845</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999563935518</v>
+        <v>-0.003999999957843059</v>
       </c>
     </row>
   </sheetData>
